--- a/测试数据.xlsx
+++ b/测试数据.xlsx
@@ -9,15 +9,12 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId2"/>
-  </externalReferences>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="39">
   <si>
     <t>TPS</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -96,6 +93,82 @@
   </si>
   <si>
     <t>20ms</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>说明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30min</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>缩短重试时间，新建连接线性下降</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>随着访问时间增加，以每分钟188个连接的数量增长</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最小空闲连接数降低，创建新连接数变小，幅度不明显</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>增大最大和最小空闲连接中间的跨度，创建新连接数量变小，服务也不明显</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>检测频率降低，实际最小空闲连接数变小，幅度很小</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>从折线图看出创建连接高峰主要在前十秒左右，案例8新建连接数增长主要在前3秒，即失败重试时间。随后连接会以每分钟188左右的速度创建（测试30分钟期间最大的同时存在的连接数）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>按照公式计算，案例1：2500；案例8：750  考虑到程序受CPU计算速度影响，TPS无法达到理论值，实际结果偏低且比例合理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>访问时间减少，创建新连接数量下降速度不明显</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>同时存在的最大连接数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前期所需的扩张连接数量  = 重试时间（秒） * TPS * 失败率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>随着访问时间增加，以每分钟38个连接的数量增长</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>后期每分钟增长连接数量 与失败重试时间成线性关系</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>同时存在的最大连接数 与失败重试时间成线性关系</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -175,8 +248,8 @@
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>545373</xdr:colOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>973998</xdr:colOff>
       <xdr:row>33</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
@@ -219,8 +292,8 @@
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>561975</xdr:colOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>990600</xdr:colOff>
       <xdr:row>49</xdr:row>
       <xdr:rowOff>50800</xdr:rowOff>
     </xdr:to>
@@ -263,8 +336,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>561975</xdr:colOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>990600</xdr:colOff>
       <xdr:row>66</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:to>
@@ -307,8 +380,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>561975</xdr:colOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>990600</xdr:colOff>
       <xdr:row>83</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:to>
@@ -343,20 +416,142 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>990600</xdr:colOff>
+      <xdr:row>100</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="图片 8"/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="14401800"/>
+          <a:ext cx="15582900" cy="2755900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>118</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>990600</xdr:colOff>
+      <xdr:row>134</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="图片 10"/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="20231100"/>
+          <a:ext cx="15582900" cy="2755900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>101</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>981119</xdr:colOff>
+      <xdr:row>117</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="图片 11" descr="F:\Projects\ExpandablePool\a.png"/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1" y="17316450"/>
+          <a:ext cx="15573418" cy="2781300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Sheet1"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -646,10 +841,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M9"/>
+  <dimension ref="A1:O15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M7" sqref="M7"/>
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -663,10 +858,12 @@
     <col min="10" max="10" width="13" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="19.25" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9" style="1"/>
+    <col min="14" max="14" width="21.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="33.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
@@ -706,8 +903,14 @@
       <c r="M1" s="1" t="s">
         <v>17</v>
       </c>
+      <c r="N1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>21</v>
+      </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -748,7 +951,7 @@
         <v>1868</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -788,8 +991,11 @@
       <c r="M3" s="1">
         <v>1820</v>
       </c>
+      <c r="O3" s="1" t="s">
+        <v>29</v>
+      </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -829,8 +1035,11 @@
       <c r="M4" s="1">
         <v>1470</v>
       </c>
+      <c r="O4" s="1" t="s">
+        <v>27</v>
+      </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -870,25 +1079,257 @@
       <c r="M5" s="1">
         <v>1253</v>
       </c>
+      <c r="O5" s="1" t="s">
+        <v>28</v>
+      </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A6" s="1">
         <v>5</v>
       </c>
+      <c r="B6" s="1">
+        <v>200</v>
+      </c>
+      <c r="C6" s="1">
+        <v>100</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I6" s="1">
+        <v>2000</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K6" s="1">
+        <v>84</v>
+      </c>
+      <c r="L6" s="3">
+        <v>0</v>
+      </c>
+      <c r="M6" s="1">
+        <v>1602</v>
+      </c>
+      <c r="O6" s="1" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A7" s="1">
         <v>6</v>
       </c>
+      <c r="B7" s="1">
+        <v>200</v>
+      </c>
+      <c r="C7" s="1">
+        <v>100</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I7" s="1">
+        <v>2000</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K7" s="1">
+        <v>84</v>
+      </c>
+      <c r="L7" s="3">
+        <v>0</v>
+      </c>
+      <c r="M7" s="1">
+        <v>1544</v>
+      </c>
+      <c r="O7" s="1" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A8" s="1">
         <v>7</v>
       </c>
+      <c r="B8" s="1">
+        <v>200</v>
+      </c>
+      <c r="C8" s="1">
+        <v>100</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I8" s="1">
+        <v>2000</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K8" s="1">
+        <v>84</v>
+      </c>
+      <c r="L8" s="3">
+        <v>0</v>
+      </c>
+      <c r="M8" s="1">
+        <v>6717</v>
+      </c>
+      <c r="N8" s="1">
+        <v>2358</v>
+      </c>
+      <c r="O8" s="1" t="s">
+        <v>26</v>
+      </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A9" s="1">
         <v>8</v>
+      </c>
+      <c r="B9" s="1">
+        <v>200</v>
+      </c>
+      <c r="C9" s="1">
+        <v>100</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I9" s="1">
+        <v>2000</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K9" s="1">
+        <v>84</v>
+      </c>
+      <c r="L9" s="3">
+        <v>0</v>
+      </c>
+      <c r="M9" s="1">
+        <v>641</v>
+      </c>
+      <c r="O9" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1">
+        <v>200</v>
+      </c>
+      <c r="C10" s="1">
+        <v>100</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I10" s="1">
+        <v>2000</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K10" s="1">
+        <v>84</v>
+      </c>
+      <c r="L10" s="3">
+        <v>0</v>
+      </c>
+      <c r="M10" s="1">
+        <v>1749</v>
+      </c>
+      <c r="N10" s="1">
+        <v>706</v>
+      </c>
+      <c r="O10" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A12" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A13" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A14" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A15" s="1" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
